--- a/Manual/RecorderRunTimeCalculator.xlsx
+++ b/Manual/RecorderRunTimeCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\w\LS1\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB2E5A-545C-4D6D-AFEA-F3FE62736AF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC2CD7-381A-425B-827D-9DB184A96CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34290" yWindow="480" windowWidth="28110" windowHeight="12690" xr2:uid="{E6A934CE-A329-4664-88C7-9BA8BA05CB6C}"/>
+    <workbookView xWindow="405" yWindow="240" windowWidth="23355" windowHeight="11385" xr2:uid="{E6A934CE-A329-4664-88C7-9BA8BA05CB6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -563,34 +565,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD54DFB-5CFD-4D29-8C8D-BDFD2ACEB73D}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="S7" sqref="A3:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="3"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="1.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" style="5"/>
-    <col min="18" max="18" width="10.44140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="3"/>
+    <col min="11" max="11" width="8.85546875" style="4"/>
+    <col min="12" max="12" width="1.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="17" width="8.85546875" style="5"/>
+    <col min="18" max="18" width="10.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -640,29 +642,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="B2" s="7">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="C2" s="7">
         <v>96000</v>
       </c>
       <c r="E2" s="8">
-        <f>A2+B2</f>
-        <v>300</v>
+        <f t="shared" ref="E2:E7" si="0">A2+B2</f>
+        <v>900</v>
       </c>
       <c r="F2" s="8">
         <f>A2/E2</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
         <v>12000</v>
@@ -675,323 +677,28 @@
         <v>96000</v>
       </c>
       <c r="M2" s="8">
-        <f>(G2*A2/E2) + (H2*B2/E2)</f>
-        <v>12.040000000000001</v>
+        <f t="shared" ref="M2:M7" si="1">(G2*A2/E2) + (H2*B2/E2)</f>
+        <v>19.133333333333333</v>
       </c>
       <c r="O2" s="9">
         <f>K2/M2</f>
-        <v>7973.4219269102987</v>
+        <v>5017.4216027874563</v>
       </c>
       <c r="P2" s="9">
         <f>O2/24</f>
-        <v>332.22591362126246</v>
+        <v>209.05923344947735</v>
       </c>
       <c r="Q2" s="9">
-        <f>O2*A2/E2</f>
-        <v>1594.6843853820596</v>
+        <f t="shared" ref="Q2:Q7" si="2">O2*A2/E2</f>
+        <v>1672.4738675958188</v>
       </c>
       <c r="R2" s="10">
         <f>Q2*3600*C2*2/1000000</f>
-        <v>1102245.8471760796</v>
+        <v>1156013.93728223</v>
       </c>
       <c r="S2" s="10">
         <f>R2/1000</f>
-        <v>1102.2458471760797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3">
-        <v>240</v>
-      </c>
-      <c r="C3" s="3">
-        <v>48000</v>
-      </c>
-      <c r="E3" s="4">
-        <f>A3+B3</f>
-        <v>300</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F5" si="0">A3/E3</f>
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>49</v>
-      </c>
-      <c r="H3">
-        <v>2.8</v>
-      </c>
-      <c r="I3">
-        <v>12000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4">
-        <f>I3*J3</f>
-        <v>96000</v>
-      </c>
-      <c r="M3" s="4">
-        <f>(G3*A3/E3) + (H3*B3/E3)</f>
-        <v>12.040000000000001</v>
-      </c>
-      <c r="O3" s="5">
-        <f>K3/M3</f>
-        <v>7973.4219269102987</v>
-      </c>
-      <c r="P3" s="5">
-        <f>O3/24</f>
-        <v>332.22591362126246</v>
-      </c>
-      <c r="Q3" s="5">
-        <f>O3*A3/E3</f>
-        <v>1594.6843853820596</v>
-      </c>
-      <c r="R3" s="6">
-        <f t="shared" ref="R3:R7" si="1">Q3*3600*C3*2/1000000</f>
-        <v>551122.92358803982</v>
-      </c>
-      <c r="S3" s="6">
-        <f t="shared" ref="S3:S7" si="2">R3/1000</f>
-        <v>551.12292358803984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3">
-        <v>540</v>
-      </c>
-      <c r="C4" s="3">
-        <v>96000</v>
-      </c>
-      <c r="E4" s="4">
-        <f>A4+B4</f>
-        <v>600</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>49</v>
-      </c>
-      <c r="H4">
-        <v>2.8</v>
-      </c>
-      <c r="I4">
-        <v>12000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>8</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K5" si="3">I4*J4</f>
-        <v>96000</v>
-      </c>
-      <c r="M4" s="4">
-        <f>(G4*A4/E4) + (H4*B4/E4)</f>
-        <v>7.42</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" ref="O4:O5" si="4">K4/M4</f>
-        <v>12938.00539083558</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P4:P7" si="5">O4/24</f>
-        <v>539.08355795148248</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>O4*A4/E4</f>
-        <v>1293.8005390835581</v>
-      </c>
-      <c r="R4" s="6">
-        <f t="shared" si="1"/>
-        <v>894274.93261455547</v>
-      </c>
-      <c r="S4" s="6">
-        <f t="shared" si="2"/>
-        <v>894.2749326145555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>60</v>
-      </c>
-      <c r="B5" s="3">
-        <v>540</v>
-      </c>
-      <c r="C5" s="3">
-        <v>48000</v>
-      </c>
-      <c r="E5" s="4">
-        <f>A5+B5</f>
-        <v>600</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="G5">
-        <v>49</v>
-      </c>
-      <c r="H5">
-        <v>2.8</v>
-      </c>
-      <c r="I5">
-        <v>12000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>8</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="3"/>
-        <v>96000</v>
-      </c>
-      <c r="M5" s="4">
-        <f>(G5*A5/E5) + (H5*B5/E5)</f>
-        <v>7.42</v>
-      </c>
-      <c r="O5" s="5">
-        <f t="shared" si="4"/>
-        <v>12938.00539083558</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="5"/>
-        <v>539.08355795148248</v>
-      </c>
-      <c r="Q5" s="5">
-        <f>O5*A5/E5</f>
-        <v>1293.8005390835581</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" si="1"/>
-        <v>447137.46630727773</v>
-      </c>
-      <c r="S5" s="6">
-        <f t="shared" si="2"/>
-        <v>447.13746630727775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>60</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>48000</v>
-      </c>
-      <c r="E6" s="4">
-        <f>A6+B6</f>
-        <v>60</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6" si="6">A6/E6</f>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>49</v>
-      </c>
-      <c r="H6">
-        <v>2.8</v>
-      </c>
-      <c r="I6">
-        <v>12000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>8</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" ref="K6" si="7">I6*J6</f>
-        <v>96000</v>
-      </c>
-      <c r="M6" s="4">
-        <f>(G6*A6/E6) + (H6*B6/E6)</f>
-        <v>49</v>
-      </c>
-      <c r="O6" s="5">
-        <f t="shared" ref="O6" si="8">K6/M6</f>
-        <v>1959.1836734693877</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="5"/>
-        <v>81.632653061224488</v>
-      </c>
-      <c r="Q6" s="5">
-        <f>O6*A6/E6</f>
-        <v>1959.1836734693877</v>
-      </c>
-      <c r="R6" s="6">
-        <f t="shared" si="1"/>
-        <v>677093.87755102036</v>
-      </c>
-      <c r="S6" s="6">
-        <f t="shared" si="2"/>
-        <v>677.09387755102034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>96000</v>
-      </c>
-      <c r="E7" s="4">
-        <f>A7+B7</f>
-        <v>60</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" ref="F7" si="9">A7/E7</f>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>49</v>
-      </c>
-      <c r="H7">
-        <v>2.8</v>
-      </c>
-      <c r="I7">
-        <v>12000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" ref="K7" si="10">I7*J7</f>
-        <v>96000</v>
-      </c>
-      <c r="M7" s="4">
-        <f>(G7*A7/E7) + (H7*B7/E7)</f>
-        <v>49</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" ref="O7" si="11">K7/M7</f>
-        <v>1959.1836734693877</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="5"/>
-        <v>81.632653061224488</v>
-      </c>
-      <c r="Q7" s="5">
-        <f>O7*A7/E7</f>
-        <v>1959.1836734693877</v>
-      </c>
-      <c r="R7" s="6">
-        <f t="shared" si="1"/>
-        <v>1354187.7551020407</v>
-      </c>
-      <c r="S7" s="6">
-        <f t="shared" si="2"/>
-        <v>1354.1877551020407</v>
+        <v>1156.01393728223</v>
       </c>
     </row>
   </sheetData>
